--- a/papers_processed/Paper18_data.xlsx
+++ b/papers_processed/Paper18_data.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Downloads\extracted data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\pulpit\Master Project 3\papers_processed\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CBC91C5-F818-4B4A-9E7D-CDA81AC68D3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8191A7C-0CDF-4EAF-B4A4-864BF498D02C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{48BEA1F0-447F-DE4E-A86F-68F46CD7FB6F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{48BEA1F0-447F-DE4E-A86F-68F46CD7FB6F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,36 +20,16 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="25">
   <si>
     <t>doi</t>
   </si>
   <si>
-    <t>selection_type</t>
-  </si>
-  <si>
-    <t>selection_value</t>
-  </si>
-  <si>
-    <t>farming_practice_used</t>
-  </si>
-  <si>
     <t>farming_practice_compared</t>
   </si>
   <si>
@@ -95,16 +75,31 @@
     <t>crop_yield</t>
   </si>
   <si>
-    <t>Sandy Soil</t>
-  </si>
-  <si>
-    <t>Clay Soil</t>
-  </si>
-  <si>
     <t>soil type</t>
   </si>
   <si>
     <t>climate</t>
+  </si>
+  <si>
+    <t>farming practice</t>
+  </si>
+  <si>
+    <t>selection</t>
+  </si>
+  <si>
+    <t>selection type</t>
+  </si>
+  <si>
+    <t>sandy</t>
+  </si>
+  <si>
+    <t>clay</t>
+  </si>
+  <si>
+    <t>"+27"</t>
+  </si>
+  <si>
+    <t>"-2"</t>
   </si>
 </sst>
 </file>
@@ -515,7 +510,7 @@
   <dimension ref="A1:L5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -548,65 +543,65 @@
       <c r="K1" s="1"/>
       <c r="L1" s="1"/>
     </row>
-    <row r="2" spans="1:12" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="G2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E2" s="2" t="s">
+      <c r="H2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="I2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="J2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="K2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>8</v>
-      </c>
       <c r="L2" s="2" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:12" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D3" s="5">
         <v>6</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F3" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G3" s="5" t="s">
         <v>15</v>
-      </c>
-      <c r="G3" s="5" t="s">
-        <v>18</v>
       </c>
       <c r="H3" s="6">
         <v>0.14000000000000001</v>
@@ -615,89 +610,89 @@
         <v>6</v>
       </c>
       <c r="J3" s="5" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B4" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C4" s="3" t="s">
-        <v>19</v>
-      </c>
       <c r="D4" s="3">
         <v>6</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F4" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G4" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="G4" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="H4" s="4">
-        <v>0.27</v>
+      <c r="H4" s="4" t="s">
+        <v>23</v>
       </c>
       <c r="I4" s="3">
         <v>6</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D5" s="3">
         <v>6</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F5" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G5" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="G5" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="H5" s="4">
-        <v>-0.02</v>
+      <c r="H5" s="4" t="s">
+        <v>24</v>
       </c>
       <c r="I5" s="3">
         <v>6</v>
       </c>
       <c r="J5" s="3" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/papers_processed/Paper18_data.xlsx
+++ b/papers_processed/Paper18_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\pulpit\Master Project 3\papers_processed\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8191A7C-0CDF-4EAF-B4A4-864BF498D02C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5943384C-89CE-4ECA-A456-7193E6803A20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{48BEA1F0-447F-DE4E-A86F-68F46CD7FB6F}"/>
+    <workbookView xWindow="31140" yWindow="2340" windowWidth="21600" windowHeight="11385" xr2:uid="{48BEA1F0-447F-DE4E-A86F-68F46CD7FB6F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="21">
   <si>
     <t>doi</t>
   </si>
@@ -36,9 +36,6 @@
     <t>results_detailed</t>
   </si>
   <si>
-    <t>results_actual_percentage</t>
-  </si>
-  <si>
     <t>crop_type</t>
   </si>
   <si>
@@ -69,37 +66,28 @@
     <t>Cereals (Wheat, Barley, Maize)</t>
   </si>
   <si>
-    <t>Tropical/Subtropical</t>
-  </si>
-  <si>
     <t>crop_yield</t>
   </si>
   <si>
-    <t>soil type</t>
-  </si>
-  <si>
-    <t>climate</t>
-  </si>
-  <si>
-    <t>farming practice</t>
-  </si>
-  <si>
     <t>selection</t>
   </si>
   <si>
-    <t>selection type</t>
-  </si>
-  <si>
     <t>sandy</t>
   </si>
   <si>
-    <t>clay</t>
-  </si>
-  <si>
     <t>"+27"</t>
   </si>
   <si>
-    <t>"-2"</t>
+    <t>results_actual</t>
+  </si>
+  <si>
+    <t>selection_type</t>
+  </si>
+  <si>
+    <t>farming_practice</t>
+  </si>
+  <si>
+    <t>soil_type</t>
   </si>
 </sst>
 </file>
@@ -115,7 +103,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -134,12 +122,6 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -153,7 +135,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -165,12 +147,6 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -507,10 +483,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{386025B4-E450-FF43-8765-7002E993E1EC}">
-  <dimension ref="A1:L5"/>
+  <dimension ref="A1:L2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -530,169 +506,79 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1" s="1"/>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
-      <c r="K1" s="1"/>
-      <c r="L1" s="1"/>
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>9</v>
+      </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="2" t="s">
+    <row r="2" spans="1:12" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="L2" s="2" t="s">
+      <c r="C2" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" s="3">
+        <v>6</v>
+      </c>
+      <c r="E2" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="3" spans="1:12" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A3" s="5" t="s">
+      <c r="F2" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" s="3">
         <v>6</v>
       </c>
-      <c r="B3" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D3" s="5">
+      <c r="J2" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="K2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E3" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F3" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="G3" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="H3" s="6">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="I3" s="5">
+      <c r="L2" s="1" t="s">
         <v>6</v>
-      </c>
-      <c r="J3" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="L3" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="D4" s="3">
-        <v>6</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="H4" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="I4" s="3">
-        <v>6</v>
-      </c>
-      <c r="J4" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="K4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="L4" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="D5" s="3">
-        <v>6</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G5" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="H5" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="I5" s="3">
-        <v>6</v>
-      </c>
-      <c r="J5" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="K5" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="L5" s="1" t="s">
-        <v>7</v>
       </c>
     </row>
   </sheetData>
